--- a/source_code/input_files/input_file_template/template_environment_input.xlsx
+++ b/source_code/input_files/input_file_template/template_environment_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/daniele_placido_polito_it/Documents/SC2_38/Description_of_Components/new_input_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/daniele_placido_polito_it/Documents/OPENSC2/source_code/input_files/input_file_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{01D43060-AA5F-4158-AE60-13D7362B342F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{866D49FC-C4D4-4CD4-A47B-B9AC41674DB3}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{01D43060-AA5F-4158-AE60-13D7362B342F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1F75BD6-23C3-43B6-AB0E-61D0E68304C3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ENVIRONMENT" sheetId="2" r:id="rId1"/>
@@ -502,7 +502,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
